--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -294,15 +294,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -314,6 +305,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,64 +621,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
@@ -737,10 +737,10 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>433178</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -787,10 +787,10 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>371252</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -837,10 +837,10 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>220225</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -887,10 +887,10 @@
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>656988</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -937,10 +937,10 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>294379</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -987,10 +987,10 @@
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>713692</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1037,10 +1037,10 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>246223</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1087,10 +1087,10 @@
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>938740</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1137,10 +1137,10 @@
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>830569</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1187,10 +1187,10 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>668396</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1237,10 +1237,10 @@
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>914254</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1287,10 +1287,10 @@
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>932562</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1337,10 +1337,10 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>945515</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1387,10 +1387,10 @@
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>938048</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1437,10 +1437,10 @@
       <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>998323</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1487,10 +1487,10 @@
       <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>724025</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1537,10 +1537,10 @@
       <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>914225</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -1587,10 +1587,10 @@
       <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>822415</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -1637,10 +1637,10 @@
       <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>974374</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1687,10 +1687,10 @@
       <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>611489</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -1737,10 +1737,10 @@
       <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="7">
         <v>788173</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1787,10 +1787,10 @@
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="7">
         <v>970116</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -1837,10 +1837,10 @@
       <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="7">
         <v>225885</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -1887,10 +1887,10 @@
       <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="7">
         <v>839733</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -1937,10 +1937,10 @@
       <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="7">
         <v>183771</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1987,10 +1987,10 @@
       <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="7">
         <v>164491</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2037,10 +2037,10 @@
       <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="7">
         <v>622056</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -2087,10 +2087,10 @@
       <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="7">
         <v>272888</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2137,10 +2137,10 @@
       <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="7">
         <v>564493</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2187,10 +2187,10 @@
       <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="7">
         <v>946847</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -2237,10 +2237,10 @@
       <c r="A37" s="6">
         <v>31</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="7">
         <v>718701</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2287,10 +2287,10 @@
       <c r="A38" s="6">
         <v>32</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="7">
         <v>596615</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -2337,10 +2337,10 @@
       <c r="A39" s="6">
         <v>33</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="7">
         <v>784753</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -2387,10 +2387,10 @@
       <c r="A40" s="6">
         <v>34</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="7">
         <v>414080</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -2437,10 +2437,10 @@
       <c r="A41" s="6">
         <v>35</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="7">
         <v>161857</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2487,10 +2487,10 @@
       <c r="A42" s="6">
         <v>36</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="7">
         <v>849747</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -2537,10 +2537,10 @@
       <c r="A43" s="6">
         <v>37</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="7">
         <v>583976</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2587,10 +2587,10 @@
       <c r="A44" s="6">
         <v>38</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="7">
         <v>481861</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -2637,10 +2637,10 @@
       <c r="A45" s="6">
         <v>39</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="7">
         <v>244893</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -2687,10 +2687,10 @@
       <c r="A46" s="6">
         <v>40</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="7">
         <v>505809</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -592,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,7 +604,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10">
-        <v>433178</v>
+        <v>173843</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -592,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,7 +604,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10">
-        <v>173843</v>
+        <v>433178</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogelio suganob jr\Documents\GitHub\MONITORING\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -173,8 +178,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,7 +597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,10 +609,10 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -620,7 +625,7 @@
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="60" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -640,7 +645,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="58.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -660,7 +665,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
@@ -680,10 +685,10 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -733,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -743,8 +748,8 @@
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
+      <c r="D7" s="5">
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
@@ -783,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -793,8 +798,8 @@
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>3</v>
+      <c r="D8" s="5">
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
@@ -833,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -843,8 +848,8 @@
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
+      <c r="D9" s="5">
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
@@ -883,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -893,8 +898,8 @@
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
+      <c r="D10" s="5">
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
@@ -933,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -943,8 +948,8 @@
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
+      <c r="D11" s="5">
+        <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
@@ -983,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1033,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1133,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1183,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1283,7 +1288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="17.25" thickBot="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1383,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1433,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1533,7 +1538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1583,7 +1588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1633,7 +1638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1683,7 +1688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1733,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1783,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1833,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -1983,7 +1988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -2033,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -2083,7 +2088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -2133,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="17.25" thickBot="1">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -2183,7 +2188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="17.25" thickBot="1">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -2233,7 +2238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="17.25" thickBot="1">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -2283,7 +2288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="17.25" thickBot="1">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -2383,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="17.25" thickBot="1">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -2433,7 +2438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="17.25" thickBot="1">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -2483,7 +2488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="17.25" thickBot="1">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="17.25" thickBot="1">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -2583,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="17.25" thickBot="1">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="17.25" thickBot="1">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="17.25" thickBot="1">
       <c r="A46" s="6">
         <v>40</v>
       </c>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -608,8 +608,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,8 +751,8 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
+      <c r="E7" s="5">
+        <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>3</v>
@@ -851,8 +851,8 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>3</v>
+      <c r="E9" s="5">
+        <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>3</v>
@@ -901,8 +901,8 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>3</v>
+      <c r="E10" s="5">
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>3</v>
@@ -951,8 +951,8 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
+      <c r="E11" s="5">
+        <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>3</v>
@@ -998,11 +998,11 @@
       <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>3</v>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>3</v>
@@ -1048,11 +1048,11 @@
       <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>3</v>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>3</v>
@@ -1098,11 +1098,11 @@
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>3</v>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>3</v>
@@ -1148,11 +1148,11 @@
       <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>3</v>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>3</v>
@@ -1198,11 +1198,11 @@
       <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>3</v>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>3</v>
@@ -1248,11 +1248,11 @@
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>3</v>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>3</v>
@@ -1298,11 +1298,11 @@
       <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>3</v>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>3</v>
@@ -1348,11 +1348,11 @@
       <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>3</v>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>3</v>
@@ -1398,11 +1398,11 @@
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>3</v>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>3</v>
@@ -1448,11 +1448,11 @@
       <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>3</v>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>3</v>
@@ -1498,11 +1498,11 @@
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>3</v>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>3</v>
@@ -1548,11 +1548,11 @@
       <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>3</v>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>3</v>
@@ -1598,11 +1598,11 @@
       <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>3</v>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>3</v>
@@ -1648,11 +1648,11 @@
       <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>3</v>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>3</v>
@@ -1748,11 +1748,11 @@
       <c r="C27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>3</v>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>3</v>
@@ -1798,11 +1798,11 @@
       <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>3</v>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>3</v>
@@ -1848,11 +1848,11 @@
       <c r="C29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>3</v>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>3</v>
@@ -1898,11 +1898,11 @@
       <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>3</v>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>3</v>
@@ -1948,11 +1948,11 @@
       <c r="C31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>3</v>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>3</v>
@@ -1998,11 +1998,11 @@
       <c r="C32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>3</v>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>3</v>
@@ -2048,11 +2048,11 @@
       <c r="C33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>3</v>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>3</v>
@@ -2098,11 +2098,11 @@
       <c r="C34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>3</v>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>3</v>
@@ -2148,11 +2148,11 @@
       <c r="C35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>3</v>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>3</v>
@@ -2198,11 +2198,11 @@
       <c r="C36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>3</v>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>3</v>
@@ -2248,11 +2248,11 @@
       <c r="C37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>3</v>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>3</v>
@@ -2298,11 +2298,11 @@
       <c r="C38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>3</v>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>3</v>
@@ -2348,11 +2348,11 @@
       <c r="C39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>3</v>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>3</v>
@@ -2398,11 +2398,11 @@
       <c r="C40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>3</v>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>3</v>
@@ -2448,11 +2448,11 @@
       <c r="C41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>3</v>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>3</v>
@@ -2498,11 +2498,11 @@
       <c r="C42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>3</v>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>3</v>
@@ -2548,11 +2548,11 @@
       <c r="C43" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>3</v>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>3</v>
@@ -2598,11 +2598,11 @@
       <c r="C44" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>3</v>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>3</v>
@@ -2648,11 +2648,11 @@
       <c r="C45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>3</v>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>3</v>
@@ -2698,11 +2698,11 @@
       <c r="C46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>3</v>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>3</v>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogelio suganob jr\Documents\GitHub\MONITORING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\CEA-FAC\CPE 122 - Discrete Mathematics\BSCpE 1, CPE 122, S.Y. 19-20 💻⚙\MONITORING-CPE1B-19-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_FFD0D4A41867FA1A2BA38881505FCE96667F394F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FED9C858-961B-46F3-8680-514A8BEE83EC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPE1A-ATTENDANCE-19-20" sheetId="3" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -173,13 +166,16 @@
   </si>
   <si>
     <t>ATTENDANCE, BSCpE 1B, S.Y. 2019-2020</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,15 +600,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -625,7 +621,7 @@
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1">
+    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -645,7 +641,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="58.5" customHeight="1">
+    <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -665,7 +661,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
@@ -685,10 +681,10 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -738,7 +734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -788,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -838,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -888,7 +884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -938,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -988,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1038,7 +1034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1088,7 +1084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1138,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1188,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1238,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1288,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1338,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1">
+    <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1388,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1438,7 +1434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1488,7 +1484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1538,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1588,7 +1584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1638,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1688,7 +1684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1699,10 +1695,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>3</v>
@@ -1738,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1788,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1838,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1888,7 +1884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -1938,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -1988,7 +1984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -2038,7 +2034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -2088,7 +2084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -2138,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17.25" thickBot="1">
+    <row r="35" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -2188,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="17.25" thickBot="1">
+    <row r="36" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -2238,7 +2234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.25" thickBot="1">
+    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -2288,7 +2284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="17.25" thickBot="1">
+    <row r="38" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -2338,7 +2334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -2388,7 +2384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1">
+    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -2438,7 +2434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1">
+    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="17.25" thickBot="1">
+    <row r="42" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -2538,7 +2534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.25" thickBot="1">
+    <row r="43" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -2588,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.25" thickBot="1">
+    <row r="44" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -2638,7 +2634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.25" thickBot="1">
+    <row r="45" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2688,7 +2684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="17.25" thickBot="1">
+    <row r="46" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>40</v>
       </c>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\CEA-FAC\CPE 122 - Discrete Mathematics\BSCpE 1, CPE 122, S.Y. 19-20 💻⚙\MONITORING-CPE1B-19-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogelio suganob jr\Documents\GitHub\MONITORING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_FFD0D4A41867FA1A2BA38881505FCE96667F394F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FED9C858-961B-46F3-8680-514A8BEE83EC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="CPE1A-ATTENDANCE-19-20" sheetId="3" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -174,8 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,28 +599,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="60" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -641,7 +640,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="58.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -661,7 +660,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
@@ -681,10 +680,10 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -700,8 +699,8 @@
       <c r="E6" s="4">
         <v>43858</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>3</v>
+      <c r="F6" s="4">
+        <v>43865</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>3</v>
@@ -734,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -750,8 +749,8 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
+      <c r="F7" s="5">
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>3</v>
@@ -784,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -800,8 +799,8 @@
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>3</v>
+      <c r="F8" s="5">
+        <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>3</v>
@@ -834,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -850,8 +849,8 @@
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>3</v>
+      <c r="F9" s="5">
+        <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>3</v>
@@ -884,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -900,8 +899,8 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>3</v>
+      <c r="F10" s="5">
+        <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>3</v>
@@ -934,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -950,8 +949,8 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>3</v>
+      <c r="F11" s="5">
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>3</v>
@@ -984,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1000,8 +999,8 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>3</v>
+      <c r="F12" s="5">
+        <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>3</v>
@@ -1034,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1050,8 +1049,8 @@
       <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>3</v>
+      <c r="F13" s="5">
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>3</v>
@@ -1084,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1100,8 +1099,8 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>3</v>
+      <c r="F14" s="5">
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>3</v>
@@ -1134,7 +1133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1150,8 +1149,8 @@
       <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>3</v>
+      <c r="F15" s="5">
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>3</v>
@@ -1184,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1200,8 +1199,8 @@
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>3</v>
+      <c r="F16" s="5">
+        <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>3</v>
@@ -1234,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1250,8 +1249,8 @@
       <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>3</v>
+      <c r="F17" s="5">
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>3</v>
@@ -1284,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1300,8 +1299,8 @@
       <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>3</v>
+      <c r="F18" s="5">
+        <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>3</v>
@@ -1334,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="17.25" thickBot="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1350,8 +1349,8 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>3</v>
+      <c r="F19" s="5">
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>3</v>
@@ -1384,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1400,8 +1399,8 @@
       <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>3</v>
+      <c r="F20" s="5">
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>3</v>
@@ -1434,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1450,8 +1449,8 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>3</v>
+      <c r="F21" s="5">
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>3</v>
@@ -1484,7 +1483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1500,8 +1499,8 @@
       <c r="E22" s="5">
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>3</v>
+      <c r="F22" s="5">
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>3</v>
@@ -1534,7 +1533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1550,8 +1549,8 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>3</v>
+      <c r="F23" s="5">
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>3</v>
@@ -1584,7 +1583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1600,8 +1599,8 @@
       <c r="E24" s="5">
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>3</v>
+      <c r="F24" s="5">
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>3</v>
@@ -1634,7 +1633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1650,8 +1649,8 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>3</v>
+      <c r="F25" s="5">
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>3</v>
@@ -1684,7 +1683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>47</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>3</v>
@@ -1734,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1750,8 +1749,8 @@
       <c r="E27" s="5">
         <v>1</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>3</v>
+      <c r="F27" s="5">
+        <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>3</v>
@@ -1784,7 +1783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1800,8 +1799,8 @@
       <c r="E28" s="5">
         <v>1</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>3</v>
+      <c r="F28" s="5">
+        <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>3</v>
@@ -1834,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1850,8 +1849,8 @@
       <c r="E29" s="5">
         <v>1</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>3</v>
+      <c r="F29" s="5">
+        <v>1</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>3</v>
@@ -1884,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -1900,8 +1899,8 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>3</v>
+      <c r="F30" s="5">
+        <v>1</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>3</v>
@@ -1934,7 +1933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -1950,8 +1949,8 @@
       <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>3</v>
+      <c r="F31" s="5">
+        <v>1</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>3</v>
@@ -1984,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -2000,8 +1999,8 @@
       <c r="E32" s="5">
         <v>1</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>3</v>
+      <c r="F32" s="5">
+        <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>3</v>
@@ -2034,7 +2033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -2050,8 +2049,8 @@
       <c r="E33" s="5">
         <v>1</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>3</v>
+      <c r="F33" s="5">
+        <v>1</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>3</v>
@@ -2084,7 +2083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -2100,8 +2099,8 @@
       <c r="E34" s="5">
         <v>1</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>3</v>
+      <c r="F34" s="5">
+        <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>3</v>
@@ -2134,7 +2133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="17.25" thickBot="1">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -2150,8 +2149,8 @@
       <c r="E35" s="5">
         <v>1</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>3</v>
+      <c r="F35" s="5">
+        <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>3</v>
@@ -2184,7 +2183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="17.25" thickBot="1">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -2200,8 +2199,8 @@
       <c r="E36" s="5">
         <v>1</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>3</v>
+      <c r="F36" s="5">
+        <v>1</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>3</v>
@@ -2234,7 +2233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="17.25" thickBot="1">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -2250,8 +2249,8 @@
       <c r="E37" s="5">
         <v>1</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>3</v>
+      <c r="F37" s="5">
+        <v>1</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>3</v>
@@ -2284,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="17.25" thickBot="1">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -2300,8 +2299,8 @@
       <c r="E38" s="5">
         <v>1</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>3</v>
+      <c r="F38" s="5">
+        <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>3</v>
@@ -2334,7 +2333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -2350,8 +2349,8 @@
       <c r="E39" s="5">
         <v>1</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>3</v>
+      <c r="F39" s="5">
+        <v>1</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>3</v>
@@ -2384,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="17.25" thickBot="1">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -2400,8 +2399,8 @@
       <c r="E40" s="5">
         <v>1</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>3</v>
+      <c r="F40" s="5">
+        <v>1</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>3</v>
@@ -2434,7 +2433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="17.25" thickBot="1">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -2450,8 +2449,8 @@
       <c r="E41" s="5">
         <v>1</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>3</v>
+      <c r="F41" s="5">
+        <v>1</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>3</v>
@@ -2484,7 +2483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="17.25" thickBot="1">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -2500,8 +2499,8 @@
       <c r="E42" s="5">
         <v>1</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>3</v>
+      <c r="F42" s="5">
+        <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>3</v>
@@ -2534,7 +2533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="17.25" thickBot="1">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -2550,8 +2549,8 @@
       <c r="E43" s="5">
         <v>1</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>3</v>
+      <c r="F43" s="5">
+        <v>1</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>3</v>
@@ -2584,7 +2583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="17.25" thickBot="1">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -2600,8 +2599,8 @@
       <c r="E44" s="5">
         <v>1</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>3</v>
+      <c r="F44" s="5">
+        <v>1</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>3</v>
@@ -2634,7 +2633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="17.25" thickBot="1">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2650,8 +2649,8 @@
       <c r="E45" s="5">
         <v>1</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>3</v>
+      <c r="F45" s="5">
+        <v>1</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>3</v>
@@ -2684,7 +2683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="17.25" thickBot="1">
       <c r="A46" s="6">
         <v>40</v>
       </c>
@@ -2700,8 +2699,8 @@
       <c r="E46" s="5">
         <v>1</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>3</v>
+      <c r="F46" s="5">
+        <v>1</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>3</v>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogelio suganob jr\Documents\GitHub\MONITORING\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -168,13 +163,16 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>BUDIONGAN, ELVAN, B.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,13 +599,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -620,7 +618,7 @@
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1">
+    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -640,7 +638,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="58.5" customHeight="1">
+    <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -660,7 +658,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
@@ -680,10 +678,10 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -733,7 +731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -783,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -796,8 +794,8 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>3</v>
+      <c r="E8" s="5">
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -833,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -883,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -933,7 +931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -983,65 +981,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>6</v>
       </c>
       <c r="B12" s="7">
-        <v>713692</v>
+        <v>876666</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>7</v>
       </c>
       <c r="B13" s="7">
-        <v>246223</v>
+        <v>713692</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -1083,15 +1061,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>8</v>
       </c>
       <c r="B14" s="7">
-        <v>938740</v>
+        <v>246223</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -1133,15 +1111,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>9</v>
       </c>
       <c r="B15" s="7">
-        <v>830569</v>
+        <v>938740</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -1183,15 +1161,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>10</v>
       </c>
       <c r="B16" s="7">
-        <v>668396</v>
+        <v>830569</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -1233,15 +1211,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>11</v>
       </c>
       <c r="B17" s="7">
-        <v>914254</v>
+        <v>668396</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -1283,15 +1261,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>12</v>
       </c>
       <c r="B18" s="7">
-        <v>932562</v>
+        <v>914254</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -1333,15 +1311,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>13</v>
       </c>
       <c r="B19" s="7">
-        <v>945515</v>
+        <v>932562</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -1383,15 +1361,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="20" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>14</v>
       </c>
       <c r="B20" s="7">
-        <v>938048</v>
+        <v>945515</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -1433,15 +1411,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>15</v>
       </c>
       <c r="B21" s="7">
-        <v>998323</v>
+        <v>938048</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -1483,15 +1461,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>16</v>
       </c>
       <c r="B22" s="7">
-        <v>724025</v>
+        <v>998323</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1533,15 +1511,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>17</v>
       </c>
       <c r="B23" s="7">
-        <v>914225</v>
+        <v>724025</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -1583,15 +1561,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>18</v>
       </c>
       <c r="B24" s="7">
-        <v>822415</v>
+        <v>914225</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -1633,15 +1611,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>19</v>
       </c>
       <c r="B25" s="7">
-        <v>974374</v>
+        <v>822415</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1683,24 +1661,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>20</v>
       </c>
       <c r="B26" s="7">
-        <v>611489</v>
+        <v>974374</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>3</v>
@@ -1733,24 +1711,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>21</v>
       </c>
       <c r="B27" s="7">
-        <v>788173</v>
+        <v>611489</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>3</v>
@@ -1783,15 +1761,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>22</v>
       </c>
       <c r="B28" s="7">
-        <v>970116</v>
+        <v>788173</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -1833,15 +1811,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>23</v>
       </c>
       <c r="B29" s="7">
-        <v>225885</v>
+        <v>970116</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1883,15 +1861,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>24</v>
       </c>
       <c r="B30" s="7">
-        <v>839733</v>
+        <v>225885</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1933,15 +1911,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>25</v>
       </c>
       <c r="B31" s="7">
-        <v>183771</v>
+        <v>839733</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1983,15 +1961,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>26</v>
       </c>
       <c r="B32" s="7">
-        <v>164491</v>
+        <v>183771</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
@@ -2033,15 +2011,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>27</v>
       </c>
       <c r="B33" s="7">
-        <v>622056</v>
+        <v>164491</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -2083,15 +2061,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>28</v>
       </c>
       <c r="B34" s="7">
-        <v>272888</v>
+        <v>622056</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -2133,15 +2111,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17.25" thickBot="1">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>29</v>
       </c>
       <c r="B35" s="7">
-        <v>564493</v>
+        <v>272888</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
@@ -2183,15 +2161,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="17.25" thickBot="1">
+    <row r="36" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>30</v>
       </c>
       <c r="B36" s="7">
-        <v>946847</v>
+        <v>564493</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
@@ -2233,15 +2211,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.25" thickBot="1">
+    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>31</v>
       </c>
       <c r="B37" s="7">
-        <v>718701</v>
+        <v>946847</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -2283,15 +2261,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="17.25" thickBot="1">
+    <row r="38" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>32</v>
       </c>
       <c r="B38" s="7">
-        <v>596615</v>
+        <v>718701</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -2333,15 +2311,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>33</v>
       </c>
       <c r="B39" s="7">
-        <v>784753</v>
+        <v>596615</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -2383,15 +2361,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1">
+    <row r="40" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>34</v>
       </c>
       <c r="B40" s="7">
-        <v>414080</v>
+        <v>784753</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -2433,15 +2411,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1">
+    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>35</v>
       </c>
       <c r="B41" s="7">
-        <v>161857</v>
+        <v>414080</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
@@ -2483,15 +2461,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="17.25" thickBot="1">
+    <row r="42" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>36</v>
       </c>
       <c r="B42" s="7">
-        <v>849747</v>
+        <v>161857</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -2533,15 +2511,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.25" thickBot="1">
+    <row r="43" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>37</v>
       </c>
       <c r="B43" s="7">
-        <v>583976</v>
+        <v>849747</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -2583,15 +2561,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.25" thickBot="1">
+    <row r="44" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>38</v>
       </c>
       <c r="B44" s="7">
-        <v>481861</v>
+        <v>583976</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
@@ -2633,15 +2611,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.25" thickBot="1">
+    <row r="45" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>39</v>
       </c>
       <c r="B45" s="7">
-        <v>244893</v>
+        <v>481861</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -2683,53 +2661,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="17.25" thickBot="1">
+    <row r="46" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>40</v>
       </c>
       <c r="B46" s="7">
+        <v>244893</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7">
         <v>505809</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5">
-        <v>1</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="5" t="s">
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="5" t="s">
         <v>3</v>
       </c>
     </row>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -603,8 +603,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,8 +613,8 @@
     <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -702,8 +702,8 @@
       <c r="F6" s="4">
         <v>43865</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
+      <c r="G6" s="4">
+        <v>43872</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>3</v>
@@ -752,8 +752,8 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>3</v>
+      <c r="G7" s="5">
+        <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>3</v>
@@ -802,8 +802,8 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>3</v>
+      <c r="G8" s="5">
+        <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>3</v>
@@ -852,8 +852,8 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>3</v>
+      <c r="G9" s="5">
+        <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>3</v>
@@ -902,8 +902,8 @@
       <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>3</v>
+      <c r="G10" s="5">
+        <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>3</v>
@@ -952,8 +952,8 @@
       <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>3</v>
+      <c r="G11" s="5">
+        <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>3</v>
@@ -1002,8 +1002,8 @@
       <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>3</v>
+      <c r="G12" s="5">
+        <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>3</v>
@@ -1052,8 +1052,8 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>3</v>
+      <c r="G13" s="5">
+        <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>3</v>
@@ -1102,8 +1102,8 @@
       <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>3</v>
+      <c r="G14" s="5">
+        <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>3</v>
@@ -1152,8 +1152,8 @@
       <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>3</v>
+      <c r="G15" s="5">
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>3</v>
@@ -1202,8 +1202,8 @@
       <c r="F16" s="5">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>3</v>
+      <c r="G16" s="5">
+        <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>3</v>
@@ -1252,8 +1252,8 @@
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>3</v>
+      <c r="G17" s="5">
+        <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>3</v>
@@ -1302,8 +1302,8 @@
       <c r="F18" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>3</v>
+      <c r="G18" s="5">
+        <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>3</v>
@@ -1352,8 +1352,8 @@
       <c r="F19" s="5">
         <v>1</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>3</v>
+      <c r="G19" s="5">
+        <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>3</v>
@@ -1402,8 +1402,8 @@
       <c r="F20" s="5">
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>3</v>
+      <c r="G20" s="5">
+        <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>3</v>
@@ -1452,8 +1452,8 @@
       <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>3</v>
+      <c r="G21" s="5">
+        <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>3</v>
@@ -1502,8 +1502,8 @@
       <c r="F22" s="5">
         <v>1</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>3</v>
+      <c r="G22" s="5">
+        <v>1</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>3</v>
@@ -1552,8 +1552,8 @@
       <c r="F23" s="5">
         <v>1</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>3</v>
+      <c r="G23" s="5">
+        <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>3</v>
@@ -1602,8 +1602,8 @@
       <c r="F24" s="5">
         <v>1</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>3</v>
+      <c r="G24" s="5">
+        <v>1</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>3</v>
@@ -1652,8 +1652,8 @@
       <c r="F25" s="5">
         <v>1</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>3</v>
+      <c r="G25" s="5">
+        <v>1</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>3</v>
@@ -1702,8 +1702,8 @@
       <c r="F26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>3</v>
+      <c r="G26" s="5">
+        <v>1</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>3</v>
@@ -1752,8 +1752,8 @@
       <c r="F27" s="5">
         <v>1</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>3</v>
+      <c r="G27" s="5">
+        <v>1</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>3</v>
@@ -1802,8 +1802,8 @@
       <c r="F28" s="5">
         <v>1</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>3</v>
+      <c r="G28" s="5">
+        <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>3</v>
@@ -1852,8 +1852,8 @@
       <c r="F29" s="5">
         <v>1</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>3</v>
+      <c r="G29" s="5">
+        <v>1</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>3</v>
@@ -1902,8 +1902,8 @@
       <c r="F30" s="5">
         <v>1</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>3</v>
+      <c r="G30" s="5">
+        <v>1</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>3</v>
@@ -1952,8 +1952,8 @@
       <c r="F31" s="5">
         <v>1</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>3</v>
+      <c r="G31" s="5">
+        <v>1</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>3</v>
@@ -2002,8 +2002,8 @@
       <c r="F32" s="5">
         <v>1</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>3</v>
+      <c r="G32" s="5">
+        <v>1</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>3</v>
@@ -2052,8 +2052,8 @@
       <c r="F33" s="5">
         <v>1</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>3</v>
+      <c r="G33" s="5">
+        <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>3</v>
@@ -2102,8 +2102,8 @@
       <c r="F34" s="5">
         <v>1</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>3</v>
+      <c r="G34" s="5">
+        <v>1</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>3</v>
@@ -2152,8 +2152,8 @@
       <c r="F35" s="5">
         <v>1</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>3</v>
+      <c r="G35" s="5">
+        <v>1</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>3</v>
@@ -2202,8 +2202,8 @@
       <c r="F36" s="5">
         <v>1</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>3</v>
+      <c r="G36" s="5">
+        <v>1</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>3</v>
@@ -2252,8 +2252,8 @@
       <c r="F37" s="5">
         <v>1</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>3</v>
+      <c r="G37" s="5">
+        <v>1</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>3</v>
@@ -2302,8 +2302,8 @@
       <c r="F38" s="5">
         <v>1</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>3</v>
+      <c r="G38" s="5">
+        <v>1</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>3</v>
@@ -2352,8 +2352,8 @@
       <c r="F39" s="5">
         <v>1</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>3</v>
+      <c r="G39" s="5">
+        <v>1</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>3</v>
@@ -2402,8 +2402,8 @@
       <c r="F40" s="5">
         <v>1</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>3</v>
+      <c r="G40" s="5">
+        <v>1</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>3</v>
@@ -2452,8 +2452,8 @@
       <c r="F41" s="5">
         <v>1</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>3</v>
+      <c r="G41" s="5">
+        <v>1</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>3</v>
@@ -2502,8 +2502,8 @@
       <c r="F42" s="5">
         <v>1</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>3</v>
+      <c r="G42" s="5">
+        <v>1</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>3</v>
@@ -2552,8 +2552,8 @@
       <c r="F43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>3</v>
+      <c r="G43" s="5">
+        <v>1</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>3</v>
@@ -2602,8 +2602,8 @@
       <c r="F44" s="5">
         <v>1</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>3</v>
+      <c r="G44" s="5">
+        <v>1</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>3</v>
@@ -2652,8 +2652,8 @@
       <c r="F45" s="5">
         <v>1</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>3</v>
+      <c r="G45" s="5">
+        <v>1</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>3</v>
@@ -2702,8 +2702,8 @@
       <c r="F46" s="5">
         <v>1</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>3</v>
+      <c r="G46" s="5">
+        <v>1</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>3</v>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -604,7 +604,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C46"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,8 +613,8 @@
     <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -705,8 +705,8 @@
       <c r="G6" s="4">
         <v>43872</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>3</v>
+      <c r="H6" s="4">
+        <v>43879</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>3</v>
@@ -755,8 +755,8 @@
       <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>3</v>
+      <c r="H7" s="5">
+        <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>3</v>
@@ -805,8 +805,8 @@
       <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>3</v>
+      <c r="H8" s="5">
+        <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>3</v>
@@ -855,8 +855,8 @@
       <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>3</v>
+      <c r="H9" s="5">
+        <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>3</v>
@@ -905,8 +905,8 @@
       <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>3</v>
+      <c r="H10" s="5">
+        <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>3</v>
@@ -955,8 +955,8 @@
       <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>3</v>
+      <c r="H11" s="5">
+        <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>3</v>
@@ -1005,8 +1005,8 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>3</v>
+      <c r="H12" s="5">
+        <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>3</v>
@@ -1055,8 +1055,8 @@
       <c r="G13" s="5">
         <v>1</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>3</v>
+      <c r="H13" s="5">
+        <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>3</v>
@@ -1155,8 +1155,8 @@
       <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>3</v>
+      <c r="H15" s="5">
+        <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>3</v>
@@ -1205,8 +1205,8 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>3</v>
+      <c r="H16" s="5">
+        <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>3</v>
@@ -1255,8 +1255,8 @@
       <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>3</v>
+      <c r="H17" s="5">
+        <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>3</v>
@@ -1305,8 +1305,8 @@
       <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>3</v>
+      <c r="H18" s="5">
+        <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>3</v>
@@ -1355,8 +1355,8 @@
       <c r="G19" s="5">
         <v>1</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>3</v>
+      <c r="H19" s="5">
+        <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>3</v>
@@ -1405,8 +1405,8 @@
       <c r="G20" s="5">
         <v>1</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>3</v>
+      <c r="H20" s="5">
+        <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>3</v>
@@ -1455,8 +1455,8 @@
       <c r="G21" s="5">
         <v>1</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>3</v>
+      <c r="H21" s="5">
+        <v>1</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>3</v>
@@ -1505,8 +1505,8 @@
       <c r="G22" s="5">
         <v>1</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>3</v>
+      <c r="H22" s="5">
+        <v>1</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>3</v>
@@ -1605,8 +1605,8 @@
       <c r="G24" s="5">
         <v>1</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>3</v>
+      <c r="H24" s="5">
+        <v>1</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>3</v>
@@ -1655,8 +1655,8 @@
       <c r="G25" s="5">
         <v>1</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>3</v>
+      <c r="H25" s="5">
+        <v>1</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>3</v>
@@ -1705,8 +1705,8 @@
       <c r="G26" s="5">
         <v>1</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>3</v>
+      <c r="H26" s="5">
+        <v>1</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>3</v>
@@ -1755,8 +1755,8 @@
       <c r="G27" s="5">
         <v>1</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>3</v>
+      <c r="H27" s="5">
+        <v>1</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>3</v>
@@ -1805,8 +1805,8 @@
       <c r="G28" s="5">
         <v>1</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>3</v>
+      <c r="H28" s="5">
+        <v>1</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>3</v>
@@ -1855,8 +1855,8 @@
       <c r="G29" s="5">
         <v>1</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>3</v>
+      <c r="H29" s="5">
+        <v>1</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>3</v>
@@ -1905,8 +1905,8 @@
       <c r="G30" s="5">
         <v>1</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>3</v>
+      <c r="H30" s="5">
+        <v>1</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>3</v>
@@ -1955,8 +1955,8 @@
       <c r="G31" s="5">
         <v>1</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>3</v>
+      <c r="H31" s="5">
+        <v>1</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>3</v>
@@ -2005,8 +2005,8 @@
       <c r="G32" s="5">
         <v>1</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>3</v>
+      <c r="H32" s="5">
+        <v>1</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>3</v>
@@ -2055,8 +2055,8 @@
       <c r="G33" s="5">
         <v>1</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>3</v>
+      <c r="H33" s="5">
+        <v>1</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>3</v>
@@ -2105,8 +2105,8 @@
       <c r="G34" s="5">
         <v>1</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>3</v>
+      <c r="H34" s="5">
+        <v>1</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>3</v>
@@ -2155,8 +2155,8 @@
       <c r="G35" s="5">
         <v>1</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>3</v>
+      <c r="H35" s="5">
+        <v>1</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>3</v>
@@ -2205,8 +2205,8 @@
       <c r="G36" s="5">
         <v>1</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>3</v>
+      <c r="H36" s="5">
+        <v>1</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>3</v>
@@ -2305,8 +2305,8 @@
       <c r="G38" s="5">
         <v>1</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>3</v>
+      <c r="H38" s="5">
+        <v>1</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>3</v>
@@ -2355,8 +2355,8 @@
       <c r="G39" s="5">
         <v>1</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>3</v>
+      <c r="H39" s="5">
+        <v>1</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>3</v>
@@ -2405,8 +2405,8 @@
       <c r="G40" s="5">
         <v>1</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>3</v>
+      <c r="H40" s="5">
+        <v>1</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>3</v>
@@ -2455,8 +2455,8 @@
       <c r="G41" s="5">
         <v>1</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>3</v>
+      <c r="H41" s="5">
+        <v>1</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>3</v>
@@ -2505,8 +2505,8 @@
       <c r="G42" s="5">
         <v>1</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>3</v>
+      <c r="H42" s="5">
+        <v>1</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>3</v>
@@ -2605,8 +2605,8 @@
       <c r="G44" s="5">
         <v>1</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>3</v>
+      <c r="H44" s="5">
+        <v>1</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>3</v>
@@ -2655,8 +2655,8 @@
       <c r="G45" s="5">
         <v>1</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>3</v>
+      <c r="H45" s="5">
+        <v>1</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>3</v>
@@ -2705,8 +2705,8 @@
       <c r="G46" s="5">
         <v>1</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>3</v>
+      <c r="H46" s="5">
+        <v>1</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>3</v>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\CEA-FAC\CPE 122 - Discrete Mathematics\BSCpE 1, CPE 122, S.Y. 19-20\MONITORING-CPE1B-19-20\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_AA225AC9997432BA2E5D0DC308AD0E11C4E2ABEA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPE1A-ATTENDANCE-19-20" sheetId="3" r:id="rId1"/>
@@ -171,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,18 +596,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\CEA-FAC\CPE 122 - Discrete Mathematics\BSCpE 1, CPE 122, S.Y. 19-20\MONITORING-CPE1B-19-20\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_AA225AC9997432BA2E5D0DC308AD0E11C4E2ABEA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="CPE1A-ATTENDANCE-19-20" sheetId="3" r:id="rId1"/>
@@ -177,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,18 +590,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogelio suganob jr\Documents\GitHub\MONITORING\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -173,8 +168,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -603,11 +598,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -620,7 +615,7 @@
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" customHeight="1">
+    <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -640,7 +635,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="58.5" customHeight="1">
+    <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -660,7 +655,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
@@ -680,10 +675,10 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -733,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -783,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -796,8 +791,8 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>3</v>
+      <c r="E8" s="5">
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -833,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -883,7 +878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -933,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -983,7 +978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1033,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1083,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1105,8 +1100,8 @@
       <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>3</v>
+      <c r="H14" s="5">
+        <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>3</v>
@@ -1133,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1183,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1233,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1283,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1333,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1">
+    <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1383,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1433,7 +1428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1483,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1533,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1555,8 +1550,8 @@
       <c r="G23" s="5">
         <v>1</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>3</v>
+      <c r="H23" s="5">
+        <v>0</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>3</v>
@@ -1583,7 +1578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1633,7 +1628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1683,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1733,7 +1728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1783,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1833,7 +1828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1883,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -1933,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -1983,7 +1978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -2033,7 +2028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -2083,7 +2078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -2133,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17.25" thickBot="1">
+    <row r="35" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -2183,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="17.25" thickBot="1">
+    <row r="36" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -2233,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.25" thickBot="1">
+    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -2255,8 +2250,8 @@
       <c r="G37" s="5">
         <v>1</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>3</v>
+      <c r="H37" s="5">
+        <v>0</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>3</v>
@@ -2283,7 +2278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="17.25" thickBot="1">
+    <row r="38" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -2333,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -2383,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1">
+    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -2433,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1">
+    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -2483,7 +2478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="17.25" thickBot="1">
+    <row r="42" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -2533,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.25" thickBot="1">
+    <row r="43" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -2555,8 +2550,8 @@
       <c r="G43" s="5">
         <v>1</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>3</v>
+      <c r="H43" s="5">
+        <v>0</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>3</v>
@@ -2583,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.25" thickBot="1">
+    <row r="44" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -2633,7 +2628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.25" thickBot="1">
+    <row r="45" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2683,7 +2678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="17.25" thickBot="1">
+    <row r="46" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>40</v>
       </c>

--- a/DM-CPE1B-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1B-19-20-ATTENDANCE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -603,8 +603,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,8 +613,8 @@
     <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -708,8 +708,8 @@
       <c r="H6" s="4">
         <v>43879</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>3</v>
+      <c r="I6" s="4">
+        <v>43893</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>3</v>
@@ -758,8 +758,8 @@
       <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>3</v>
+      <c r="I7" s="5">
+        <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>3</v>
@@ -808,8 +808,8 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>3</v>
+      <c r="I8" s="5">
+        <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>3</v>
@@ -858,8 +858,8 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>3</v>
+      <c r="I9" s="5">
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>3</v>
@@ -908,8 +908,8 @@
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>3</v>
+      <c r="I10" s="5">
+        <v>1</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>3</v>
@@ -958,8 +958,8 @@
       <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>3</v>
+      <c r="I11" s="5">
+        <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>3</v>
@@ -1008,8 +1008,8 @@
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>3</v>
+      <c r="I12" s="5">
+        <v>1</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>3</v>
@@ -1058,8 +1058,8 @@
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>3</v>
+      <c r="I13" s="5">
+        <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>3</v>
@@ -1108,8 +1108,8 @@
       <c r="H14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>3</v>
+      <c r="I14" s="5">
+        <v>1</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>3</v>
@@ -1158,8 +1158,8 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>3</v>
+      <c r="I15" s="5">
+        <v>1</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>3</v>
@@ -1208,8 +1208,8 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>3</v>
+      <c r="I16" s="5">
+        <v>1</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>3</v>
@@ -1258,8 +1258,8 @@
       <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>3</v>
+      <c r="I17" s="5">
+        <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>3</v>
@@ -1308,9 +1308,7 @@
       <c r="H18" s="5">
         <v>1</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
         <v>3</v>
       </c>
@@ -1358,8 +1356,8 @@
       <c r="H19" s="5">
         <v>1</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>3</v>
+      <c r="I19" s="5">
+        <v>1</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>3</v>
@@ -1408,8 +1406,8 @@
       <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>3</v>
+      <c r="I20" s="5">
+        <v>1</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>3</v>
@@ -1458,8 +1456,8 @@
       <c r="H21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>3</v>
+      <c r="I21" s="5">
+        <v>1</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>3</v>
@@ -1508,8 +1506,8 @@
       <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>3</v>
+      <c r="I22" s="5">
+        <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>3</v>
@@ -1558,8 +1556,8 @@
       <c r="H23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>3</v>
+      <c r="I23" s="5">
+        <v>1</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>3</v>
@@ -1608,9 +1606,7 @@
       <c r="H24" s="5">
         <v>1</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="I24" s="5"/>
       <c r="J24" s="5" t="s">
         <v>3</v>
       </c>
@@ -1658,8 +1654,8 @@
       <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>3</v>
+      <c r="I25" s="5">
+        <v>1</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>3</v>
@@ -1758,8 +1754,8 @@
       <c r="H27" s="5">
         <v>1</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>3</v>
+      <c r="I27" s="5">
+        <v>1</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>3</v>
@@ -1808,8 +1804,8 @@
       <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>3</v>
+      <c r="I28" s="5">
+        <v>1</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>3</v>
@@ -1858,8 +1854,8 @@
       <c r="H29" s="5">
         <v>1</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>3</v>
+      <c r="I29" s="5">
+        <v>1</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>3</v>
@@ -1908,8 +1904,8 @@
       <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>3</v>
+      <c r="I30" s="5">
+        <v>1</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>3</v>
@@ -1958,8 +1954,8 @@
       <c r="H31" s="5">
         <v>1</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>3</v>
+      <c r="I31" s="5">
+        <v>1</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>3</v>
@@ -2008,8 +2004,8 @@
       <c r="H32" s="5">
         <v>1</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>3</v>
+      <c r="I32" s="5">
+        <v>1</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>3</v>
@@ -2058,8 +2054,8 @@
       <c r="H33" s="5">
         <v>1</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>3</v>
+      <c r="I33" s="5">
+        <v>1</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>3</v>
@@ -2108,8 +2104,8 @@
       <c r="H34" s="5">
         <v>1</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>3</v>
+      <c r="I34" s="5">
+        <v>1</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>3</v>
@@ -2158,8 +2154,8 @@
       <c r="H35" s="5">
         <v>1</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>3</v>
+      <c r="I35" s="5">
+        <v>1</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>3</v>
@@ -2208,8 +2204,8 @@
       <c r="H36" s="5">
         <v>1</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>3</v>
+      <c r="I36" s="5">
+        <v>1</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>3</v>
@@ -2258,8 +2254,8 @@
       <c r="H37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>3</v>
+      <c r="I37" s="5">
+        <v>1</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>3</v>
@@ -2308,8 +2304,8 @@
       <c r="H38" s="5">
         <v>1</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>3</v>
+      <c r="I38" s="5">
+        <v>1</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>3</v>
@@ -2358,8 +2354,8 @@
       <c r="H39" s="5">
         <v>1</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>3</v>
+      <c r="I39" s="5">
+        <v>1</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>3</v>
@@ -2408,8 +2404,8 @@
       <c r="H40" s="5">
         <v>1</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>3</v>
+      <c r="I40" s="5">
+        <v>1</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>3</v>
@@ -2458,8 +2454,8 @@
       <c r="H41" s="5">
         <v>1</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>3</v>
+      <c r="I41" s="5">
+        <v>1</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>3</v>
@@ -2508,8 +2504,8 @@
       <c r="H42" s="5">
         <v>1</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>3</v>
+      <c r="I42" s="5">
+        <v>1</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>3</v>
@@ -2558,8 +2554,8 @@
       <c r="H43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>3</v>
+      <c r="I43" s="5">
+        <v>1</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>3</v>
@@ -2608,8 +2604,8 @@
       <c r="H44" s="5">
         <v>1</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>3</v>
+      <c r="I44" s="5">
+        <v>1</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>3</v>
@@ -2658,8 +2654,8 @@
       <c r="H45" s="5">
         <v>1</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>3</v>
+      <c r="I45" s="5">
+        <v>1</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>3</v>
@@ -2708,8 +2704,8 @@
       <c r="H46" s="5">
         <v>1</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>3</v>
+      <c r="I46" s="5">
+        <v>1</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>3</v>
